--- a/books1.xlsx
+++ b/books1.xlsx
@@ -417,17 +417,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>diya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>diya</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>t1</t>
+          <t>diya</t>
         </is>
       </c>
       <c r="E3" t="n">
